--- a/Output4.xlsx
+++ b/Output4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,12 +493,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>02/22/24</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)', 'Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)', 'Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)']</t>
+          <t>['Latest Reference Range &amp; Units 02/22/24 09:20   Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -531,10 +531,14 @@
           <t>&gt;1456.71</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2024-02-08</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL', 'Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL', 'Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22']</t>
+          <t>['Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -549,115 +553,35 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2021-12-15_00:00:00.000_Progress_Notes_91091</t>
+          <t>2024-06-25_00:00:00.000_Progress_Notes_91596</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>&lt;0.15</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>&gt;0.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12/1/21</t>
+          <t>2024-06-13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['His most recent labs on 12/1/21 show an M-spike of 0.2, kappa FLC 1.45, lambda FLC 0.73, and kappa/lambda ratio of 1.99.']</t>
+          <t>['Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
-        <is>
-          <t>{
-  "title": "2021-12-15_00:00:00.000_Progress_Notes_91091",
-  "content": "Type Unknown Blood   Test Request Status Unknown Pend   Bilirubin (Direct) Latest Ref Range: 0.0 - 0.3 mg/dL 0.1       ASSESSMENT AND PLAN     1. Malignancy: The patient has been treated with CyBorD (3/2019-11/2019, 4/2021-7/2021), Revlimid (12/2019-4/2020), RVd (4/20-5/20), dara-RVd (6/2020-4/2021), and KPD (8/2021-present). He has had radiation therapy 3000 cGy to skull (8/2021-9/2021), and radiation therapy 800 cGy to bilat shoulders, pelvis, bilat hips (9/2021).  His most recent labs on 12/1/21 show an M-spike of 0.2, kappa FLC 1.45, lambda FLC 0.73, and kappa/lambda ratio of 1.99. His most recent imaging is several months old, and shows extensive disease. The patient will meet with the Aqua team attending tomorrow, and restaging will be ordered as part of the pretransplant workup.  2. Hematologic: We will monitor counts and transfuse as needed. The transfusion thresholds will be standard level of hematocrit less than 26% and platelets less than 10,000. No premeds are required.  3. Infectious Disease:  The patient will have standard infectious disease screenings and will be started on peri-transplant prophylaxis as per standard protocol. He will be switched from acyclovir to valacyclovir. **Note De-Identified via Obfuscation** 4: Extensive bone disease, risk for pathological fracture: Ortho consult to assess, specifically the lesions in his bilateral proximal humeri, left proximal femur, and right distal femur.     5: Fluids/Electrolytes/Nutrition: The patient has adequate oral intake. Multivitamin was ordered.     DISPOSITION     This patient is stable.  He is to keep appointment tomorrow to meet with the Kaiser Permanente Honolulu Clinic Asc attending, Dr. Golden Circle, wherein we will place orders for pre-transplant workup including bone marrow assessment.  We will also schedule weekly labs and weekly clinic visits between now and the  time of the patient's data review."
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2021-12-23_00:00:00.000_Progress_Notes_91107</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>20.78</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>86.58</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>6/2021</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>['In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58.']</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>{
-  "title": "2021-12-23_00:00:00.000_Progress_Notes_91107",
-  "content": "4.41 ml/min/mmHg/L    DL/VA-Pre 5.05 ml/min/mmHg/L    DL/VA-%Pred-Pre 114 %    HGB-Pre 12.9 gm/dL    FEV1/SVC-Pred 81 %    FEV1/SVC-Pre 90 %    FEV1/SVC-%Pred-Pre 110 %    O2 During Test      Oximetry Baseline      Oximetry End of Test      Oximetry Lowest      Pulse Rate Baseline      Pulse Rate End of Test      Pulse Rate Highest      Total Distance Walked      Total Minutes Walked          Assessment/Plan:    #MM:   - Diagnoses in 3/2019. M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positive by  immunofixation, and bone marrow showed myeloma.CT showed lytic lesions in the left fifth rib and sacrum.   Treated with CyBorD (3/2019-11/2019).  - In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3. MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. Treated with Revlimid (12/2019-4/2020), then RVd (4/20-5/20), then **Note De-Identified via Obfuscation** dara-RVd (6/2020-4/2021).   - From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed  axillary and retroperitonealadenopathy, as well as an increasing left skullmass.  - PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2024-06-25_00:00:00.000_Progress_Notes_91596</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>&lt;0.15</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>&gt;0.57</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>06/13/24</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>['Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL', 'Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL', 'Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22']</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
         <is>
           <t>{
   "title": "2024-06-25_00:00:00.000_Progress_Notes_91596",
@@ -666,34 +590,34 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>2021-12-23_00:00:00.000_Progress_Notes_91107</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>1.24</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>1.72</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>12/15</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2021-12-15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>['Labs 12/15 show M-spike 0.1, KFLC 1.24, K/L ratio 1.72.']</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>{
   "title": "2021-12-23_00:00:00.000_Progress_Notes_91107",
@@ -702,38 +626,38 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>2022-01-18_00:00:00.000_BMT_Conference_Note_91158</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>1.24</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>0.72</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>1.72</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>12/15</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>['12/15: SPEP  IgG kappa M spike of 0.1, Kappa light chain  1.24, lambda light chain  0.72. Kappa/ lambda ratio 1.72, beta 2 microglobulin 1.3']</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2021-12-15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['12/15: SPEP IgG kappa M spike of 0.1, Kappa light chain 1.24, lambda light chain 0.72. Kappa/ lambda ratio 1.72.']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>{
   "title": "2022-01-18_00:00:00.000_BMT_Conference_Note_91158",
@@ -742,74 +666,34 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2023-06-30_00:00:00.000_Progress_Notes_91265</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Baseline</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>['Baseline free light chains (per notes): Kappa 65, Lambda 0.34, Kappa/Lambda 190']</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>{
-  "title": "2023-06-30_00:00:00.000_Progress_Notes_91265",
-  "content": "kappa M-spike 6 g/dL   - Baseline free light chains (per notes): Kappa 65, Lambda 0.34, Kappa/Lambda 190      CYTOGENETICS (per outside report):  46,XY[20]     FLUORESCENCE IN SITU HYBRIDIZATION (per outside report):  Counts for the 17p FISH probe signals were within their normal reference range. This finding represents a NORMAL result. There were insufficient cells to analyze the remaining probe sets.     Dup(1q):             QNS  Del(13q):            QNS        t(4;14):                 QNS  L(93;79):               QNS  t(14;16):               QNS  t(14;20):               QNS    R-ISS STAGE: unknown (no B2M or FISH)      TREATMENT:    1.  CyBorD x 6 cycles, 3/2019 with VGPR (M-spike 0.3 g/dL)   - evaluated for stem cell transplant at Vibra Specialty Hospital Of Portland 11/2019, not pursued due to insurance  2.  Lenalidomide maintenance -&gt; PD in 4/2020  3.  RVD, 4/2020 - 6/2020 with PD  4.  RVD+daratumumab, 6/2020 - 4/2021 (break off of therapy in October 2020 due to Cuba infection)  4.  CyBorD, 4/2021 - 7/2021  5.  KPd, 7/2021  6.  Palliative radiation to the left skull 3000  cGy, right shoulder 800 Gy 9/1, left shoulder 800 Gy 9/2, upper pelvis, bilateral hips 800 Gy 9/3  7.  Mel200/ASCT, D0 = 1/21/2022   - pre-transplant labs: IgG kappa M-spike 0.1 g/dL and FLC ratio 1.72 on 12/15/2021   - mobilization with GCSF on 1/8/2022   - 11.4 x 10(6) CD34+ cells/kg collected 1/11 - 1/12/2022   - Mel 200 mg/m2 on 1/19/2022   - reinfusion of cells on 1/21/2022  8. Pomalidomide"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>2024-06-25_00:00:00.000_Progress_Notes_91596</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>&lt;0.06 mg/dL</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>&lt;1.61 mg/dL</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4/8/2024</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>['Labs from 4/8/2024: Kappa &lt;0.06 mg/dL, Lambda &lt;1.61 mg/dL, SPEP with M-spike 0.3 g/dL, IgG kappa Bone marrow biopsy 4/8/2024: Limited marrow biopsy with no morphologic or flow cytometric evidence of residual plasma cell neoplasm']</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>{
   "title": "2024-06-25_00:00:00.000_Progress_Notes_91596",
@@ -818,38 +702,38 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>2024-04-17_00:00:00.000_Progress_Notes_91591</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>16.18</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>&lt;0.15</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>&gt;115.57</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2/22/2024</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>['2/22/24: KFLC 16.18, LFLC &lt;0.15, kappa/lambda ratio &gt;115.57. SPEP with IgG kappa, M-spike 1.0; previous monoclonal kappa free light chain not detected.']</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>{
   "title": "2024-04-17_00:00:00.000_Progress_Notes_91591",
